--- a/ぼどげ.xlsx
+++ b/ぼどげ.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="72" windowWidth="28032" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="28032" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="方眼紙" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>トランプ</t>
     <phoneticPr fontId="1"/>
@@ -268,12 +269,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大アルカナ+小アルカナ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22+56</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +314,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -531,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +648,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -622,6 +672,1829 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>439268</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44821</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130438</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1048868" y="376518"/>
+          <a:ext cx="5091953" cy="4863802"/>
+          <a:chOff x="1030939" y="340659"/>
+          <a:chExt cx="5091953" cy="4863802"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1030939" y="524884"/>
+            <a:ext cx="5091953" cy="4679577"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2752165" y="340659"/>
+            <a:ext cx="1352326" cy="333393"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>シーン遷移</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298845</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7911225" y="3455638"/>
+          <a:ext cx="2141220" cy="2290484"/>
+          <a:chOff x="2004060" y="487680"/>
+          <a:chExt cx="2141220" cy="2255520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="952500"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>スート</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>:int</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>数字：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>int</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>位置</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="1851660"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>インターフェース諸々</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="487680"/>
+            <a:ext cx="2141220" cy="472440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>プレイヤー</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159635</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7926720" y="598779"/>
+          <a:ext cx="2141220" cy="2286127"/>
+          <a:chOff x="2004060" y="487680"/>
+          <a:chExt cx="2141220" cy="2255520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="952500"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>変数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="1851660"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="487680"/>
+            <a:ext cx="2141220" cy="472440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>盤面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133191</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>445611</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120896</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10496391" y="552995"/>
+          <a:ext cx="2141220" cy="2293172"/>
+          <a:chOff x="2004060" y="487680"/>
+          <a:chExt cx="2141220" cy="2255520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="952500"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>スート</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:int</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>数字：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>int</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="1851660"/>
+            <a:ext cx="2141220" cy="891540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2004060" y="487680"/>
+            <a:ext cx="2141220" cy="472440"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447435</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>462930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8981835" y="2884906"/>
+          <a:ext cx="15495" cy="570732"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>270284</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403410</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103542</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1489484" y="1237129"/>
+          <a:ext cx="1352326" cy="1591684"/>
+          <a:chOff x="144780" y="299869"/>
+          <a:chExt cx="2141220" cy="2293173"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="772449"/>
+            <a:ext cx="2141220" cy="906423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>変数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="1686619"/>
+            <a:ext cx="2141220" cy="906423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="299869"/>
+            <a:ext cx="2141220" cy="480327"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>タイトル</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277907</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>394448</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4545107" y="1115658"/>
+          <a:ext cx="1335741" cy="1744084"/>
+          <a:chOff x="144780" y="299869"/>
+          <a:chExt cx="2141220" cy="2293173"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="772449"/>
+            <a:ext cx="2141220" cy="906423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>変数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="1686619"/>
+            <a:ext cx="2141220" cy="906423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>関数</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>()</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="144780" y="299869"/>
+            <a:ext cx="2141220" cy="480327"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>クラス名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1067,10 +2940,19 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16">
+        <f>22+56</f>
+        <v>78</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="13.8" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
@@ -1093,23 +2975,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F9:G9"/>
+  <dimension ref="J1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="13" width="4.77734375" customWidth="1"/>
+    <col min="1" max="55" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
+    <row r="1" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25">
+        <f ca="1">RANDBETWEEN(1,13)</f>
+        <v>13</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="10:20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="22.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1118,38 +3199,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>